--- a/biology/Médecine/Phtiriase/Phtiriase.xlsx
+++ b/biology/Médecine/Phtiriase/Phtiriase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phtiriase (ou phthiriase) est une maladie infectieuse de la peau due au pou du pubis ou morpion (Phtirius inguinalis). On l'appelle aussi pédiculose inguinale[1]. C'est une parasitose gênante mais peu grave.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phtiriase (ou phthiriase) est une maladie infectieuse de la peau due au pou du pubis ou morpion (Phtirius inguinalis). On l'appelle aussi pédiculose inguinale. C'est une parasitose gênante mais peu grave.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'infection est très contagieuse. Dans la plupart des cas, la transmission se fait par voie directe, lors d'un contact sexuel notamment. Elle est par ce fait considérée comme une infection sexuellement transmissible.
 Plus rarement, la transmission se fait par voie indirecte. La piscine, le sauna, l'essayage de vêtements, sont les exemples les plus courants de transmission indirecte.
@@ -544,7 +558,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poux, pour se nourrir, piquent et provoquent l'apparition d'une papule rosée, prurigineuse, entrainant des lésions de grattage pouvant se surinfecter.
 </t>
@@ -575,7 +591,9 @@
           <t>Symptômes et diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parasites prolifèrent généralement dans les poils de la région pubienne ou périnéale, mais aussi, plus rarement, dans les autres poils corporels (aisselles, barbe, sourcils et cils), à l'exception du cuir chevelu.
 prurit pubien permanent, d'intensité variable, associé à des lésions de grattage parfois surinfectées (impétigo, adénopathies satellites).
@@ -611,7 +629,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement peut être plus difficile que celui de la pédiculose du cuir chevelu, étant donné la possibilité d’une infestation au-delà de la zone pubienne, non ressentie par le patient. 
 Les insecticides et les protocoles d’application utilisés pour les poux de tête constituent la base du traitement insecticide des poux du pubis.
@@ -645,9 +665,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les auteurs anciens, notamment Plutarque dans sa vie de Sylla, traçaient un tableau effrayant de la phtiriase, souvent considérée comme un châtiment des tyrans[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les auteurs anciens, notamment Plutarque dans sa vie de Sylla, traçaient un tableau effrayant de la phtiriase, souvent considérée comme un châtiment des tyrans.
 </t>
         </is>
       </c>
